--- a/visor/data/Thompkins/onHandMaterial.xlsx
+++ b/visor/data/Thompkins/onHandMaterial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dpc\ETSU\projects\WIT\CMMPPT\visor\data\Thompkins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC13E3E0-5F1F-4367-93F4-1D2142294035}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287C10A7-0E4E-45B0-80D9-CE99CF5777E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="20124" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="20124" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plasticMaterial" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="48">
   <si>
     <t>location</t>
   </si>
@@ -144,30 +144,15 @@
     <t>Jin Wang</t>
   </si>
   <si>
-    <t>Rondell Almodovar</t>
-  </si>
-  <si>
     <t>Teng Teng</t>
   </si>
   <si>
     <t>Max Westwater</t>
   </si>
   <si>
-    <t>Reuben Posada</t>
-  </si>
-  <si>
     <t>Cheong</t>
   </si>
   <si>
-    <t>Tim Hoover</t>
-  </si>
-  <si>
-    <t>Lucas Warfield</t>
-  </si>
-  <si>
-    <t>Jennifer Mellott</t>
-  </si>
-  <si>
     <t>Matthew Price</t>
   </si>
   <si>
@@ -184,129 +169,6 @@
   </si>
   <si>
     <t>gCreate - Anna and Gordon</t>
-  </si>
-  <si>
-    <t>Jon Cheetham</t>
-  </si>
-  <si>
-    <t>Christopher Battaglia</t>
-  </si>
-  <si>
-    <t>Yu Nong Khew + Alex Cornelius</t>
-  </si>
-  <si>
-    <t>Rei Lee</t>
-  </si>
-  <si>
-    <t>Jerome Fung</t>
-  </si>
-  <si>
-    <t>Meejin Yoon / Howeler &amp; Yoon Architecture</t>
-  </si>
-  <si>
-    <t>AAP NYC (Balder, Moyse, Au)</t>
-  </si>
-  <si>
-    <t>KPF</t>
-  </si>
-  <si>
-    <t>Brian Thrash</t>
-  </si>
-  <si>
-    <t>Timothy Weber</t>
-  </si>
-  <si>
-    <t>NYSCF</t>
-  </si>
-  <si>
-    <t>Sara Hricik</t>
-  </si>
-  <si>
-    <t>Sean Kennedy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Marsh - Borgwarner </t>
-  </si>
-  <si>
-    <t>James Fitch</t>
-  </si>
-  <si>
-    <t>Scott Brodrick</t>
-  </si>
-  <si>
-    <t>Burak Celik</t>
-  </si>
-  <si>
-    <t>Terrie and Michael Hunter</t>
-  </si>
-  <si>
-    <t>Ryan Logan</t>
-  </si>
-  <si>
-    <t>Ann &amp; Craig / Future Firm</t>
-  </si>
-  <si>
-    <t>Haley Hahn</t>
-  </si>
-  <si>
-    <t>Marty Sullivan</t>
-  </si>
-  <si>
-    <t>Bernardo Schuhmacher</t>
-  </si>
-  <si>
-    <t>Luke Keller</t>
-  </si>
-  <si>
-    <t>Pam Chueh</t>
-  </si>
-  <si>
-    <t>Deanna Kocher</t>
-  </si>
-  <si>
-    <t>Parker Miller &amp; Joe Skovira</t>
-  </si>
-  <si>
-    <t>Travis Buley</t>
-  </si>
-  <si>
-    <t>Kurt West / WESTWORKSHOP</t>
-  </si>
-  <si>
-    <t>Niti Parikh/ MakerLAB @ CORNELL TECH</t>
-  </si>
-  <si>
-    <t>Mike Babcock</t>
-  </si>
-  <si>
-    <t>Andy Irwin</t>
-  </si>
-  <si>
-    <t>Aaron Zufall</t>
-  </si>
-  <si>
-    <t>Brian Barber</t>
-  </si>
-  <si>
-    <t>John Pasowicz</t>
-  </si>
-  <si>
-    <t>Iman Fayyad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOSS Grace Jiranuntarat / Sonny Xu </t>
-  </si>
-  <si>
-    <t>Miles Merwin</t>
-  </si>
-  <si>
-    <t>Josh Cerra</t>
-  </si>
-  <si>
-    <t>Zachary Lounsberry</t>
-  </si>
-  <si>
-    <t>Gisela Vidalle (ASA)</t>
   </si>
   <si>
     <t>filamentSize</t>
@@ -662,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -695,10 +557,21 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -708,10 +581,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -725,10 +598,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -736,16 +609,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -753,16 +626,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -770,16 +643,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -787,16 +660,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -804,16 +677,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -827,10 +700,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -838,7 +711,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -847,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -861,10 +734,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>50</v>
@@ -872,13 +745,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -895,10 +768,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -912,10 +785,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -923,10 +796,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -940,7 +813,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -949,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>50</v>
@@ -963,10 +836,10 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>50</v>
@@ -974,7 +847,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -983,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -997,10 +870,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>50</v>
@@ -1008,7 +881,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -1025,16 +898,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>50</v>
@@ -1042,16 +915,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>50</v>
@@ -1065,10 +938,10 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>50</v>
@@ -1076,7 +949,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1085,7 +958,7 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -1093,16 +966,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -1116,10 +989,10 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>50</v>
@@ -1127,7 +1000,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -1136,7 +1009,7 @@
         <v>7</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>50</v>
@@ -1144,10 +1017,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>0.01</v>
       </c>
       <c r="E29">
         <v>50</v>
@@ -1155,16 +1034,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="E30">
         <v>50</v>
@@ -1178,10 +1057,10 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>50</v>
@@ -1189,7 +1068,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -1206,7 +1085,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -1215,7 +1094,7 @@
         <v>6</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="E33">
         <v>50</v>
@@ -1223,7 +1102,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1232,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="D34">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>50</v>
@@ -1246,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1257,16 +1136,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E36">
         <v>50</v>
@@ -1280,10 +1159,10 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E37">
         <v>50</v>
@@ -1291,16 +1170,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <v>50</v>
@@ -1314,10 +1193,10 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>50</v>
@@ -1331,10 +1210,10 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>50</v>
@@ -1342,7 +1221,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -1351,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="E41">
         <v>50</v>
@@ -1359,7 +1238,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -1368,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="D42">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="E42">
         <v>50</v>
@@ -1376,16 +1255,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>50</v>
@@ -1399,7 +1278,7 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1410,7 +1289,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -1419,7 +1298,7 @@
         <v>7</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E45">
         <v>50</v>
@@ -1427,16 +1306,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>50</v>
@@ -1449,22 +1328,28 @@
       <c r="B47" t="s">
         <v>5</v>
       </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
       <c r="E47">
         <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E48">
         <v>50</v>
@@ -1478,10 +1363,10 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E49">
         <v>50</v>
@@ -1489,10 +1374,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
       </c>
       <c r="E50">
         <v>50</v>
@@ -1500,16 +1391,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D51">
-        <v>1.5</v>
+        <v>32</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -1517,16 +1408,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <v>50</v>
@@ -1534,10 +1425,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
       </c>
       <c r="E53">
         <v>50</v>
@@ -1545,7 +1442,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>0.5</v>
       </c>
       <c r="E54">
         <v>50</v>
@@ -1553,7 +1459,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -1562,7 +1468,7 @@
         <v>7</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="E55">
         <v>50</v>
@@ -1570,567 +1476,39 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59">
-        <v>32</v>
-      </c>
-      <c r="E59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62">
-        <v>0.5</v>
-      </c>
-      <c r="E62">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63">
-        <v>150</v>
-      </c>
-      <c r="E63">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>52</v>
-      </c>
-      <c r="E64">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>55</v>
-      </c>
-      <c r="E67">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>56</v>
-      </c>
-      <c r="E68">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>57</v>
-      </c>
-      <c r="E69">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>59</v>
-      </c>
-      <c r="B71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>60</v>
-      </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>61</v>
-      </c>
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>63</v>
-      </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>64</v>
-      </c>
-      <c r="E76">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>65</v>
-      </c>
-      <c r="E77">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>66</v>
-      </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>67</v>
-      </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79">
-        <v>2.5</v>
-      </c>
-      <c r="E79">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>68</v>
-      </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80">
-        <v>3</v>
-      </c>
-      <c r="E80">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>69</v>
-      </c>
-      <c r="E81">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>70</v>
-      </c>
-      <c r="B82" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>71</v>
-      </c>
-      <c r="B83" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>72</v>
-      </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>73</v>
-      </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>74</v>
-      </c>
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>75</v>
-      </c>
-      <c r="B87" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>76</v>
-      </c>
-      <c r="E88">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>77</v>
-      </c>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>78</v>
-      </c>
-      <c r="B90" t="s">
-        <v>5</v>
-      </c>
-      <c r="E90">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>79</v>
-      </c>
-      <c r="B91" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>80</v>
-      </c>
-      <c r="B92" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>81</v>
-      </c>
-      <c r="B93" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>82</v>
-      </c>
-      <c r="E94">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>83</v>
-      </c>
-      <c r="B95" t="s">
-        <v>5</v>
-      </c>
-      <c r="E95">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>84</v>
-      </c>
-      <c r="B96" t="s">
-        <v>5</v>
-      </c>
-      <c r="E96">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>85</v>
-      </c>
-      <c r="E97">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>86</v>
-      </c>
-      <c r="B98" t="s">
-        <v>5</v>
-      </c>
-      <c r="E98">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>87</v>
-      </c>
-      <c r="E99">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>88</v>
-      </c>
-      <c r="B100" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>89</v>
-      </c>
-      <c r="B101" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>90</v>
-      </c>
-      <c r="B102" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>91</v>
-      </c>
-      <c r="B103" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>92</v>
-      </c>
-      <c r="B104" t="s">
-        <v>5</v>
-      </c>
-      <c r="E104">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Location" prompt="Enter physical location of printer. It could be an address or something like &quot;FredsHouse&quot;" sqref="B76:B77 A2:A78 B71 C71:D78" xr:uid="{F21BB601-FC52-48C1-BFE5-0218C81826D5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Plastic type" prompt="Choose PETG, PLA, ABS, or ONYX" sqref="C2:C56" xr:uid="{C2E11020-F76D-42B0-960F-56DACB22F7FD}">
+      <formula1>"PETG,PLA,ABS,ONYX"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Quantity" prompt="Enter the number of kilograms of currently on-hand material" sqref="D2:D56" xr:uid="{31812972-1D72-427D-8054-4197DCACA36B}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nozzle Size" prompt="Choose 1.75mm or 2.85mm" sqref="B2:B56" xr:uid="{59E4CA20-6D3A-483E-9793-978F6D4A2A08}">
+      <formula1>"1.75mm,2.85mm"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Share" prompt="Percentage of materal that can be shared with another printing location [0,100]." sqref="E2:E56" xr:uid="{90BD63CC-05E1-4E46-B484-208B50DE1A07}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Location" prompt="Enter physical location of printer. It could be an address or something like &quot;FredsHouse&quot;" sqref="A2:A56" xr:uid="{F21BB601-FC52-48C1-BFE5-0218C81826D5}">
       <formula1>1</formula1>
       <formula2>32</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nozzle Size" prompt="Choose 1.75mm or 2.85mm" sqref="B72:B75 B78:B80 B89:B92 B102:B104 B3:B70" xr:uid="{59E4CA20-6D3A-483E-9793-978F6D4A2A08}">
-      <formula1>"1.75mm,2.85mm"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Plastic type" prompt="Choose PETG, PLA, ABS, or ONYX" sqref="C3:C70" xr:uid="{C2E11020-F76D-42B0-960F-56DACB22F7FD}">
-      <formula1>"PETG,PLA,ABS,ONYX"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Quantity" prompt="Enter the number of kilograms of currently on-hand material" sqref="D3:D70" xr:uid="{31812972-1D72-427D-8054-4197DCACA36B}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Share" prompt="Percentage of materal that can be shared with another printing location [0,100]." sqref="E3:E104" xr:uid="{90BD63CC-05E1-4E46-B484-208B50DE1A07}">
-      <formula1>0</formula1>
-      <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
